--- a/WMSApp/WMSWebApp/wwwroot/template/IntransitTemplate.xlsx
+++ b/WMSApp/WMSWebApp/wwwroot/template/IntransitTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e5a1589382756bd/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder\WMSApp\WMSWebApp\wwwroot\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D9EBBB9-B54A-49F6-8577-486223FB1825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B95FA4D-D0A1-4533-A6E2-F9218BC7BBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD96A272-0B21-4CF6-822D-769CF84EF3AF}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{E607F35B-C9B9-48B1-BBA7-BF1EAF06343E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Amt</t>
+  </si>
+  <si>
+    <t>LoginBranchId</t>
+  </si>
+  <si>
+    <t>SenderCompanyId</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>PurchaseOrder</t>
+  </si>
+  <si>
+    <t>ItemCode</t>
+  </si>
+  <si>
+    <t>SubItemCode</t>
+  </si>
+  <si>
+    <t>SubItemName</t>
+  </si>
+  <si>
+    <t>MaterialDescription</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,13 +106,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,13 +427,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214C4DE3-6A17-4B0C-8355-2FF9D66066F0}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2698487-AF10-41B7-8B96-F35BF4D321A0}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>